--- a/continuous results/ClasifyResultsTable.xlsx
+++ b/continuous results/ClasifyResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forto\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9309935-8B0A-4DED-8EFD-6552628106C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417A867-51AC-400E-A767-637C6995153F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{049B63C6-D2C2-4FCF-9E9C-F694C873C683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>BLUE</t>
   </si>
@@ -147,13 +147,19 @@
   </si>
   <si>
     <t>bior1.5 sum</t>
+  </si>
+  <si>
+    <t>otsu sums</t>
+  </si>
+  <si>
+    <t>sobel sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +168,28 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -201,12 +222,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -521,14 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CDD860-6476-40F1-A1E6-E6BD41E49978}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
@@ -549,13 +573,13 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>90</v>
       </c>
-      <c r="C2" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D2" s="5">
         <v>100</v>
       </c>
       <c r="E2">
@@ -564,13 +588,13 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>75</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4">
         <v>56.25</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>56.25</v>
       </c>
       <c r="E3">
@@ -579,13 +603,13 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>95</v>
       </c>
-      <c r="C4" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D4" s="5">
         <v>87.5</v>
       </c>
       <c r="E4">
@@ -594,13 +618,13 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>95</v>
       </c>
-      <c r="C5" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D5" s="5">
         <v>87.5</v>
       </c>
       <c r="E5">
@@ -609,18 +633,18 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D7" s="5">
         <v>100</v>
       </c>
       <c r="E7">
@@ -629,13 +653,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>90</v>
       </c>
-      <c r="C8" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D8" s="5">
         <v>100</v>
       </c>
       <c r="E8">
@@ -644,13 +668,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>95</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>93.75</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>100</v>
       </c>
       <c r="E9">
@@ -659,13 +683,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>95</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>67.75</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>93.75</v>
       </c>
       <c r="E10">
@@ -674,18 +698,18 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>85</v>
       </c>
-      <c r="C12" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D12" s="5">
         <v>93.75</v>
       </c>
       <c r="E12">
@@ -694,13 +718,13 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>90</v>
       </c>
-      <c r="C13" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D13" s="5">
         <v>93.75</v>
       </c>
       <c r="E13">
@@ -709,13 +733,13 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>80</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>62.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>93.75</v>
       </c>
       <c r="E14">
@@ -724,13 +748,13 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>100</v>
       </c>
-      <c r="C15" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D15" s="5">
         <v>81.25</v>
       </c>
       <c r="E15">
@@ -802,13 +826,13 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>80</v>
       </c>
-      <c r="C22" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D22" s="5">
         <v>68.75</v>
       </c>
       <c r="E22">
@@ -817,13 +841,13 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>75</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4">
         <v>62.5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>68.75</v>
       </c>
       <c r="E23">
@@ -832,13 +856,13 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>85</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>62.5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>56.25</v>
       </c>
       <c r="E24">
@@ -847,13 +871,13 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>75</v>
-      </c>
-      <c r="C25" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="3">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D25" s="5">
         <v>68.75</v>
       </c>
       <c r="E25">
@@ -862,18 +886,18 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>75</v>
-      </c>
-      <c r="C27" s="3">
-        <v>75</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="3">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5">
         <v>93.75</v>
       </c>
       <c r="E27">
@@ -882,13 +906,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>75</v>
-      </c>
-      <c r="C28" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="3">
+        <v>75</v>
+      </c>
+      <c r="C28" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D28" s="5">
         <v>75</v>
       </c>
       <c r="E28">
@@ -897,13 +921,13 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>85</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>62.5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>93.75</v>
       </c>
       <c r="E29">
@@ -912,13 +936,13 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>80</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>62.5</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>87.5</v>
       </c>
       <c r="E30">
@@ -927,18 +951,18 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>50</v>
       </c>
-      <c r="C32" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D32" s="5">
         <v>87.5</v>
       </c>
       <c r="E32">
@@ -947,13 +971,13 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>70</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>93.75</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>68.75</v>
       </c>
       <c r="E33">
@@ -962,13 +986,13 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>80</v>
       </c>
-      <c r="C34" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C34" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D34" s="5">
         <v>75</v>
       </c>
       <c r="E34">
@@ -977,13 +1001,13 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>95</v>
       </c>
-      <c r="C35" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="C35" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D35" s="5">
         <v>87.5</v>
       </c>
       <c r="E35">
@@ -1181,13 +1205,13 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <v>75</v>
-      </c>
-      <c r="C52" s="3">
-        <v>75</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="B52" s="3">
+        <v>75</v>
+      </c>
+      <c r="C52" s="4">
+        <v>75</v>
+      </c>
+      <c r="D52" s="5">
         <v>81.25</v>
       </c>
       <c r="E52">
@@ -1196,13 +1220,13 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>80</v>
       </c>
-      <c r="C53" s="3">
-        <v>75</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C53" s="4">
+        <v>75</v>
+      </c>
+      <c r="D53" s="5">
         <v>68.75</v>
       </c>
       <c r="E53">
@@ -1211,13 +1235,13 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>70</v>
       </c>
-      <c r="C54" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D54" s="5">
         <v>81.25</v>
       </c>
       <c r="E54">
@@ -1226,13 +1250,13 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>60</v>
       </c>
-      <c r="C55" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D55" s="5">
         <v>81.25</v>
       </c>
       <c r="E55">
@@ -1241,18 +1265,18 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>80</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>62.5</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>100</v>
       </c>
       <c r="E57">
@@ -1261,13 +1285,13 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
-        <v>75</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B58" s="3">
+        <v>75</v>
+      </c>
+      <c r="C58" s="4">
         <v>56.25</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>75</v>
       </c>
       <c r="E58">
@@ -1276,13 +1300,13 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>55</v>
       </c>
-      <c r="C59" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="C59" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D59" s="5">
         <v>81.25</v>
       </c>
       <c r="E59">
@@ -1291,13 +1315,13 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>50</v>
       </c>
-      <c r="C60" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="C60" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D60" s="5">
         <v>100</v>
       </c>
       <c r="E60">
@@ -1306,18 +1330,18 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>95</v>
       </c>
-      <c r="C62" s="3">
-        <v>75</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="C62" s="4">
+        <v>75</v>
+      </c>
+      <c r="D62" s="5">
         <v>93.75</v>
       </c>
       <c r="E62">
@@ -1326,13 +1350,13 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>85</v>
       </c>
-      <c r="C63" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D63" s="5">
         <v>87.5</v>
       </c>
       <c r="E63">
@@ -1341,13 +1365,13 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>65</v>
       </c>
-      <c r="C64" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D64" s="5">
         <v>87.5</v>
       </c>
       <c r="E64">
@@ -1356,13 +1380,13 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>60</v>
       </c>
-      <c r="C65" s="3">
-        <v>75</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="C65" s="4">
+        <v>75</v>
+      </c>
+      <c r="D65" s="5">
         <v>87.5</v>
       </c>
       <c r="E65">
@@ -1551,13 +1575,13 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>80</v>
       </c>
-      <c r="C82" s="3">
-        <v>75</v>
-      </c>
-      <c r="D82" s="4">
+      <c r="C82" s="4">
+        <v>75</v>
+      </c>
+      <c r="D82" s="5">
         <v>68.75</v>
       </c>
       <c r="E82">
@@ -1566,13 +1590,13 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="2">
-        <v>75</v>
-      </c>
-      <c r="C83" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="B83" s="3">
+        <v>75</v>
+      </c>
+      <c r="C83" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D83" s="5">
         <v>68.75</v>
       </c>
       <c r="E83">
@@ -1581,13 +1605,13 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>80</v>
       </c>
-      <c r="C84" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D84" s="4">
+      <c r="C84" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D84" s="5">
         <v>56.25</v>
       </c>
       <c r="E84">
@@ -1596,13 +1620,13 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="2">
-        <v>75</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="B85" s="3">
+        <v>75</v>
+      </c>
+      <c r="C85" s="4">
         <v>56.25</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="5">
         <v>68.75</v>
       </c>
       <c r="E85">
@@ -1611,18 +1635,18 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>65</v>
       </c>
-      <c r="C87" s="3">
-        <v>75</v>
-      </c>
-      <c r="D87" s="4">
+      <c r="C87" s="4">
+        <v>75</v>
+      </c>
+      <c r="D87" s="5">
         <v>93.75</v>
       </c>
       <c r="E87">
@@ -1631,13 +1655,13 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="2">
-        <v>75</v>
-      </c>
-      <c r="C88" s="3">
-        <v>75</v>
-      </c>
-      <c r="D88" s="4">
+      <c r="B88" s="3">
+        <v>75</v>
+      </c>
+      <c r="C88" s="4">
+        <v>75</v>
+      </c>
+      <c r="D88" s="5">
         <v>68.75</v>
       </c>
       <c r="E88">
@@ -1646,13 +1670,13 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="2">
-        <v>75</v>
-      </c>
-      <c r="C89" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="B89" s="3">
+        <v>75</v>
+      </c>
+      <c r="C89" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D89" s="5">
         <v>87.5</v>
       </c>
       <c r="E89">
@@ -1661,13 +1685,13 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>70</v>
       </c>
-      <c r="C90" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C90" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D90" s="5">
         <v>87.5</v>
       </c>
       <c r="E90">
@@ -1676,18 +1700,18 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>65</v>
       </c>
-      <c r="C92" s="3">
-        <v>68.75</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C92" s="4">
+        <v>68.75</v>
+      </c>
+      <c r="D92" s="5">
         <v>87.5</v>
       </c>
       <c r="E92">
@@ -1696,13 +1720,13 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>70</v>
       </c>
-      <c r="C93" s="3">
-        <v>81.25</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="D93" s="5">
         <v>68.75</v>
       </c>
       <c r="E93">
@@ -1711,13 +1735,13 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>70</v>
       </c>
-      <c r="C94" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D94" s="5">
         <v>75</v>
       </c>
       <c r="E94">
@@ -1735,13 +1759,13 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>95</v>
       </c>
-      <c r="C95" s="3">
-        <v>75</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="C95" s="4">
+        <v>75</v>
+      </c>
+      <c r="D95" s="5">
         <v>75</v>
       </c>
       <c r="E95">
@@ -2025,7 +2049,76 @@
         <v>2688.75</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <f>SUM(B2:D5)</f>
+        <v>992.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <f>SUM(B17:D20)</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117">
+        <f>SUM(B22:D25)</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118">
+        <f>SUM(B37:D40)</f>
+        <v>826.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119">
+        <f>SUM(B52:D55)</f>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120">
+        <f>SUM(B67:D70)</f>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121">
+        <f>SUM(B82:D85)</f>
+        <v>841.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/continuous results/ClasifyResultsTable.xlsx
+++ b/continuous results/ClasifyResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forto\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417A867-51AC-400E-A767-637C6995153F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFD41A-5EC9-439D-8437-858E77F5ACA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{049B63C6-D2C2-4FCF-9E9C-F694C873C683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>BLUE</t>
   </si>
@@ -153,13 +153,37 @@
   </si>
   <si>
     <t>sobel sum</t>
+  </si>
+  <si>
+    <t>all mix lights img</t>
+  </si>
+  <si>
+    <t>lbp</t>
+  </si>
+  <si>
+    <t>sobel</t>
+  </si>
+  <si>
+    <t>bior1.3</t>
+  </si>
+  <si>
+    <t>db2</t>
+  </si>
+  <si>
+    <t>rbio3.1</t>
+  </si>
+  <si>
+    <t>bior2.4</t>
+  </si>
+  <si>
+    <t>bior1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +196,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -222,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -230,6 +262,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -544,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CDD860-6476-40F1-A1E6-E6BD41E49978}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,6 +591,10 @@
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
@@ -2049,12 +2089,12 @@
         <v>2688.75</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>32</v>
       </c>
@@ -2063,7 +2103,7 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>39</v>
       </c>
@@ -2072,7 +2112,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>33</v>
       </c>
@@ -2081,7 +2121,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>34</v>
       </c>
@@ -2090,7 +2130,7 @@
         <v>826.25</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>35</v>
       </c>
@@ -2099,7 +2139,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>36</v>
       </c>
@@ -2108,13 +2148,558 @@
         <v>910</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B121">
         <f>SUM(B82:D85)</f>
         <v>841.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7">
+        <v>97.6</v>
+      </c>
+      <c r="C125" s="7">
+        <v>95.2</v>
+      </c>
+      <c r="D125" s="7">
+        <v>85.7</v>
+      </c>
+      <c r="E125" s="7">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F125" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="G125" s="7">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="H125" s="7">
+        <v>83.3333333333333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7">
+        <v>85.7</v>
+      </c>
+      <c r="C126" s="7">
+        <v>88.1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>81</v>
+      </c>
+      <c r="E126" s="7">
+        <v>90.476190476190396</v>
+      </c>
+      <c r="F126" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="G126" s="7">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="H126" s="7">
+        <v>80.952380952380906</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7">
+        <v>95.238095238095198</v>
+      </c>
+      <c r="C127" s="7">
+        <v>100</v>
+      </c>
+      <c r="D127" s="7">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="E127" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="F127" s="7">
+        <v>73.809523809523796</v>
+      </c>
+      <c r="G127" s="7">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="H127" s="7">
+        <v>88.095238095238102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7">
+        <v>90.476190476190396</v>
+      </c>
+      <c r="C128" s="7">
+        <v>95.238095238095198</v>
+      </c>
+      <c r="D128" s="7">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="E128" s="7">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="F128" s="7">
+        <v>88.095238095238102</v>
+      </c>
+      <c r="G128" s="7">
+        <v>73.809523809523796</v>
+      </c>
+      <c r="H128" s="7">
+        <v>85.714285714285694</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7">
+        <v>95.2</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7">
+        <v>92.9</v>
+      </c>
+      <c r="E130" s="7">
+        <v>76.190476190476105</v>
+      </c>
+      <c r="F130" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="G130" s="7">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="H130" s="7">
+        <v>83.3333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7">
+        <v>85.7</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E131" s="7">
+        <v>69.047619047618994</v>
+      </c>
+      <c r="F131" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="G131" s="7">
+        <v>73.809523809523796</v>
+      </c>
+      <c r="H131" s="7">
+        <v>78.571428571428498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7">
+        <v>76.190476190476105</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="E132" s="7">
+        <v>52.380952380952301</v>
+      </c>
+      <c r="F132" s="7">
+        <v>69.047619047618994</v>
+      </c>
+      <c r="G132" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="H132" s="7">
+        <v>80.952380952380906</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7">
+        <v>90.476190476190396</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="E133" s="7">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="F133" s="7">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="G133" s="7">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="H133" s="7">
+        <v>76.190476190476105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7">
+        <v>95.2</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7">
+        <v>81</v>
+      </c>
+      <c r="E135" s="7">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="F135" s="7">
+        <v>88.095238095238102</v>
+      </c>
+      <c r="G135" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="H135" s="7">
+        <v>80.952380952380906</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7">
+        <v>76.2</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7">
+        <v>76.2</v>
+      </c>
+      <c r="E136" s="7">
+        <v>76.190476190476105</v>
+      </c>
+      <c r="F136" s="7">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G136" s="7">
+        <v>73.809523809523796</v>
+      </c>
+      <c r="H136" s="7">
+        <v>71.428571428571402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7">
+        <v>88.095238095238102</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="E137" s="7">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="F137" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="G137" s="7">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="H137" s="7">
+        <v>71.428571428571402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="E138" s="8">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="F138" s="7">
+        <v>78.571428571428498</v>
+      </c>
+      <c r="G138" s="7">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="H138" s="7">
+        <v>76.190476190476105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="7">
+        <f>SUM(B125:H125,B130:H130,B135:H135)</f>
+        <v>1635.6571428571424</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="7">
+        <f>SUM(B126:H126,B131:H131,B136:H136)</f>
+        <v>1509.5952380952378</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143">
+        <f>SUM(B127:H127,B132:H132,B137:H137)</f>
+        <v>1480.9523809523801</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144">
+        <f>SUM(B128:H128,B133:H133,B138:H138)</f>
+        <v>1511.9047619047612</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147">
+        <f>SUM(B125:B138)</f>
+        <v>1068.9333333333332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148">
+        <f>SUM(D125:D138)</f>
+        <v>945.39999999999986</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149">
+        <f>SUM(E125:E138)</f>
+        <v>873.80952380952317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <f>SUM(F125:F138)</f>
+        <v>957.14285714285666</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151">
+        <f>SUM(G125:G138)</f>
+        <v>957.14285714285688</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152">
+        <f>SUM(H125:H138)</f>
+        <v>957.14285714285688</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155">
+        <f>SUM(B125:B128)</f>
+        <v>369.01428571428562</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156">
+        <f>SUM(C125:C128)</f>
+        <v>378.5380952380952</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157">
+        <f>SUM(D125:D128)</f>
+        <v>323.84285714285704</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158">
+        <f>SUM(E125:E128)</f>
+        <v>333.33333333333309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159">
+        <f>SUM(F125:F128)</f>
+        <v>319.04761904761892</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160">
+        <f>SUM(G125:G128)</f>
+        <v>333.3333333333332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161">
+        <f>SUM(H125:H128)</f>
+        <v>338.09523809523802</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <f>SUM(B125:B128,D125:D128,E125:E128,F125:F128,G125:G128,H125:H128)</f>
+        <v>2016.6666666666661</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <f>SUM(B130:B133,D130:D133,E130:E133,F130:F133,G130:G133,H130:H133)</f>
+        <v>1850.0190476190467</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <f>SUM(B135:B138,D135:D138,E135:E138,F135:F138,G135:G138,H135:H138)</f>
+        <v>1892.8857142857134</v>
       </c>
     </row>
   </sheetData>
